--- a/Rekap Tulisan Sapporo.xlsx
+++ b/Rekap Tulisan Sapporo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="85">
   <si>
     <t>SAPPORO CHEK LINK</t>
   </si>
@@ -3071,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3203,7 +3203,9 @@
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3227,7 +3229,9 @@
       <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -3251,7 +3255,9 @@
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
@@ -3275,7 +3281,9 @@
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="18"/>
@@ -3299,7 +3307,9 @@
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -3367,7 +3377,9 @@
       <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -3411,7 +3423,9 @@
       <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -3435,7 +3449,9 @@
       <c r="E15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -3478,8 +3494,12 @@
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3520,8 +3540,12 @@
       <c r="D19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -3545,7 +3569,9 @@
       <c r="E20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
@@ -3589,7 +3615,9 @@
       <c r="E22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>

--- a/Rekap Tulisan Sapporo.xlsx
+++ b/Rekap Tulisan Sapporo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="86">
   <si>
     <t>SAPPORO CHEK LINK</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>0895341487138</t>
+  </si>
+  <si>
+    <t>Tantangan: Review</t>
   </si>
 </sst>
 </file>
@@ -967,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -2061,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:L32"/>
+    <sheetView topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3069,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection sqref="A1:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3206,7 +3209,9 @@
       <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
@@ -3232,7 +3237,9 @@
       <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="5"/>
@@ -3258,7 +3265,9 @@
       <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -3354,7 +3363,9 @@
         <v>15</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
@@ -3380,7 +3391,9 @@
       <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -3452,7 +3465,9 @@
       <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3500,7 +3515,9 @@
       <c r="F17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
@@ -3618,7 +3635,9 @@
       <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -3693,10 +3712,18 @@
       <c r="C26" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -3815,6 +3842,14 @@
       </c>
       <c r="K32" s="25"/>
       <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rekap Tulisan Sapporo.xlsx
+++ b/Rekap Tulisan Sapporo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="86">
   <si>
     <t>SAPPORO CHEK LINK</t>
   </si>
@@ -3074,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection sqref="A1:L33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3439,7 +3439,9 @@
       <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>

--- a/Rekap Tulisan Sapporo.xlsx
+++ b/Rekap Tulisan Sapporo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="86">
   <si>
     <t>SAPPORO CHEK LINK</t>
   </si>
@@ -3074,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3212,7 +3212,9 @@
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -3268,7 +3270,9 @@
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -3293,8 +3297,12 @@
       <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3319,8 +3327,12 @@
       <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3366,7 +3378,9 @@
       <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -3394,7 +3408,9 @@
       <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -3442,7 +3458,9 @@
       <c r="G14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3470,7 +3488,9 @@
       <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -3520,7 +3540,9 @@
       <c r="G17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -3565,8 +3587,12 @@
       <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -3591,7 +3617,9 @@
       <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -3640,7 +3668,9 @@
       <c r="G22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>

--- a/Rekap Tulisan Sapporo.xlsx
+++ b/Rekap Tulisan Sapporo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="86">
   <si>
     <t>SAPPORO CHEK LINK</t>
   </si>
@@ -307,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,8 +361,14 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -590,11 +602,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -606,6 +648,20 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2037,21 +2093,21 @@
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:K27">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="TIDAK LULUS">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="TIDAK LULUS">
       <formula>NOT(ISERROR(SEARCH("TIDAK LULUS",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="LULUS">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="LULUS">
       <formula>NOT(ISERROR(SEARCH("LULUS",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J27">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D5)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="10" priority="6">
+    <cfRule type="containsBlanks" dxfId="16" priority="6">
       <formula>LEN(TRIM(D5))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3048,21 +3104,21 @@
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:K27">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="TIDAK LULUS">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="TIDAK LULUS">
       <formula>NOT(ISERROR(SEARCH("TIDAK LULUS",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="LULUS">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="LULUS">
       <formula>NOT(ISERROR(SEARCH("LULUS",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J27">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D5)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(D5))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3074,8 +3130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3215,7 +3271,9 @@
       <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="17"/>
@@ -3242,8 +3300,12 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="17"/>
@@ -3273,7 +3335,9 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="17"/>
@@ -3411,7 +3475,9 @@
       <c r="H12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="17"/>
@@ -3461,7 +3527,9 @@
       <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="17"/>
@@ -3593,7 +3661,9 @@
       <c r="H19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="17"/>
@@ -3620,8 +3690,12 @@
       <c r="G20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="5"/>
       <c r="L20" s="17"/>
@@ -3671,7 +3745,9 @@
       <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="17"/>
@@ -3875,37 +3951,46 @@
       <c r="K32" s="25"/>
       <c r="L32" s="26"/>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="35" t="s">
         <v>85</v>
       </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:K27">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="LULUS">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="LULUS">
       <formula>NOT(ISERROR(SEARCH("LULUS",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="TIDAK LULUS">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="TIDAK LULUS">
       <formula>NOT(ISERROR(SEARCH("TIDAK LULUS",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J27">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(D5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",D5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Rekap Tulisan Sapporo.xlsx
+++ b/Rekap Tulisan Sapporo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16608" windowHeight="7836" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="86">
   <si>
     <t>SAPPORO CHEK LINK</t>
   </si>
@@ -306,8 +306,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +349,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -362,13 +374,151 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,36 +557,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79992065187536243"/>
+        <fgColor theme="5" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -446,29 +782,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,31 +812,273 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.49995422223578601"/>
+        <color theme="0" tint="-0.499954222235786"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -511,6 +1089,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -544,96 +1128,123 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="10" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="11" builtinId="38"/>
+    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="13" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="14" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="15" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="16" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="17" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="19" builtinId="43"/>
+    <cellStyle name="40% - Accent3" xfId="20" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="23" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Note" xfId="27" builtinId="10"/>
+    <cellStyle name="Input" xfId="28" builtinId="20"/>
+    <cellStyle name="Good" xfId="29" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="30" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="32" builtinId="18"/>
+    <cellStyle name="Heading 1" xfId="33" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="34" builtinId="52"/>
+    <cellStyle name="20% - Accent1" xfId="35" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="40% - Accent2" xfId="38" builtinId="35"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="40" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="41" builtinId="53"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
+    <cellStyle name="Warning Text" xfId="43" builtinId="11"/>
+    <cellStyle name="Currency [0]" xfId="44" builtinId="7"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="0" tint="-0.149937437055574"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
         </patternFill>
       </fill>
     </dxf>
@@ -654,105 +1265,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1018,52 +1538,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.43809523809524" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.4380952380952" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="10" width="9.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="35.5546875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="10" width="9.1047619047619" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.552380952381" style="2" customWidth="1"/>
+    <col min="12" max="12" width="35.552380952381" style="18" customWidth="1"/>
+    <col min="13" max="13" width="9.1047619047619" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1047619047619" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.8">
+    <row r="1" ht="22.5" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="28" customFormat="1">
+    <row r="2" s="32" customFormat="1" spans="1:12">
       <c r="A2" s="3"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" s="28" customFormat="1">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" s="32" customFormat="1" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1097,11 +1617,11 @@
       <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="28" customFormat="1">
+    <row r="4" s="32" customFormat="1" spans="1:12">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1127,874 +1647,874 @@
         <v>15</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" ht="26.4">
-      <c r="A5" s="4">
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" ht="25.5" spans="1:12">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>82183488014</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="5" t="str">
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7" t="str">
         <f t="shared" ref="K5:K27" si="0">IF(AND(COUNTIF(D5:J5,"Y")+COUNTIF(D5:J5,"L")&gt;=3,COUNTIF(D5:J5,"T")=1),"LULUS","TIDAK LULUS")</f>
         <v>LULUS</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>82397019902</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>82330716905</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>85791191811</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="5" t="str">
+      <c r="K8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>82336399254</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="5" t="str">
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>83818344862</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="5" t="str">
+      <c r="K10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" ht="39.6">
-      <c r="A11" s="4">
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" ht="38.25" spans="1:12">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>8998859145</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="5" t="str">
+      <c r="K11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>85647843966</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="5" t="str">
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>895374020702</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="5" t="str">
+      <c r="K13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>82304252465</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="5" t="str">
+      <c r="J14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>85711248770</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="5" t="str">
+      <c r="K15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>82225069298</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="5" t="str">
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>82267289797</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="5" t="str">
+      <c r="J17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="26.4">
-      <c r="A18" s="4">
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" ht="25.5" spans="1:12">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>81546750271</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="5" t="str">
+      <c r="K18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>8564607438</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="5" t="str">
+      <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>81239738305</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="5" t="str">
+      <c r="K20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L20" s="17"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <v>81381567340</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="5" t="str">
+      <c r="K21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>85299052388</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="5" t="str">
+      <c r="K22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4">
+      <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <v>85780515257</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="5" t="str">
+      <c r="K23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4">
+      <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <v>85817040589</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="5" t="str">
+      <c r="K24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" ht="26.4">
-      <c r="A25" s="4">
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" ht="25.5" spans="1:12">
+      <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="I25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="5" t="str">
+      <c r="K25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <v>85219768252</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="I26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="5" t="str">
+      <c r="K26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4">
+      <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
         <v>895341487138</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="5" t="str">
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>LULUS</v>
       </c>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" hidden="1" customHeight="1">
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" hidden="1" customHeight="1" spans="4:10">
       <c r="D28" s="2">
         <f>COUNTIF(D5:D27,"Y")</f>
         <v>16</v>
@@ -2024,58 +2544,58 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="30" spans="1:12">
-      <c r="A30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10" t="s">
+    <row r="29" hidden="1" customHeight="1"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.399999999999999">
-      <c r="A31" s="11" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" ht="18" spans="1:12">
+      <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="J31" s="21" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="J31" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23">
+      <c r="K31" s="26"/>
+      <c r="L31" s="27">
         <f>COUNTIFS(K5:K27,"LULUS")</f>
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.399999999999999">
-      <c r="A32" s="13" t="s">
+    <row r="32" ht="18" spans="1:12">
+      <c r="A32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="J32" s="24" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="J32" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26">
+      <c r="K32" s="29"/>
+      <c r="L32" s="30">
         <f>COUNTIF(K5:K27,"TIDAK LULUS")</f>
         <v>5</v>
       </c>
@@ -2093,45 +2613,47 @@
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:K27">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="TIDAK LULUS">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="TIDAK LULUS">
       <formula>NOT(ISERROR(SEARCH("TIDAK LULUS",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="LULUS">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="LULUS">
       <formula>NOT(ISERROR(SEARCH("LULUS",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J27">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="between" text="L">
       <formula>NOT(ISERROR(SEARCH("L",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="between" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D5)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="16" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(D5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="G3" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.1047619047619" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="68.33203125" customWidth="1"/>
+    <col min="12" max="12" width="68.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.8">
+    <row r="1" ht="22.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2145,23 +2667,23 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="15"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
@@ -2197,7 +2719,7 @@
       <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2227,786 +2749,786 @@
         <v>22</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1">
-      <c r="A5" s="4">
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:12">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>82183488014</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="K5" s="7" t="str">
         <f t="shared" ref="K5:K27" si="0">IF(AND(COUNTIF(D5:J5,"Y")+COUNTIF(D5:J5,"L")&gt;=3,COUNTIF(D5:J5,"T")=1),"LULUS","TIDAK LULUS")</f>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:12">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>82397019902</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:12">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>82330716905</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>85791191811</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="5" t="str">
+      <c r="K8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>82336399254</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="5" t="str">
+      <c r="K9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" s="27" customFormat="1">
-      <c r="A10" s="7">
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" s="31" customFormat="1" spans="1:12">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>83818344862</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="str">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A11" s="4">
+    <row r="11" ht="18.75" customHeight="1" spans="1:12">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>8998859145</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="5" t="str">
+      <c r="K11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>85647843966</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="5" t="str">
+      <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" s="27" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="7">
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" s="31" customFormat="1" ht="16.5" customHeight="1" spans="1:12">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>895374020702</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="str">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>82304252465</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="5" t="str">
+      <c r="K14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>85711248770</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="5" t="str">
+      <c r="K15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>82225069298</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="5" t="str">
+      <c r="K16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A17" s="4">
+    <row r="17" ht="12.75" customHeight="1" spans="1:12">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>82267289797</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="5" t="str">
+      <c r="K17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A18" s="7">
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" s="31" customFormat="1" ht="17.25" customHeight="1" spans="1:12">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>81546750271</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6" t="str">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L18" s="19"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>8564607438</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="5" t="str">
+      <c r="K19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>81239738305</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="5" t="str">
+      <c r="K20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" s="27" customFormat="1">
-      <c r="A21" s="7">
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" s="31" customFormat="1" spans="1:12">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>81381567340</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="str">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>85299052388</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="5" t="str">
+      <c r="K22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:12" s="27" customFormat="1">
-      <c r="A23" s="7">
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" s="31" customFormat="1" spans="1:12">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>85780515257</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6" t="str">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4">
+      <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <v>85817040589</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="D24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="5" t="str">
+      <c r="K24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="4">
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:12">
+      <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="5" t="str">
+      <c r="K25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A26" s="4">
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="1:12">
+      <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <v>85219768252</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5" t="s">
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K26" s="5" t="str">
+      <c r="K26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L26" s="20"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4">
+      <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
         <v>895341487138</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="5" t="str">
+      <c r="K27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>TIDAK LULUS</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3022,7 +3544,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="15"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2"/>
@@ -3036,113 +3558,115 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.399999999999999">
-      <c r="A31" s="11" t="s">
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" ht="18" spans="1:12">
+      <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23">
+      <c r="K31" s="26"/>
+      <c r="L31" s="27">
         <f>COUNTIFS(K5:K27,"LULUS")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.399999999999999">
-      <c r="A32" s="13" t="s">
+    <row r="32" ht="18" spans="1:12">
+      <c r="A32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:K27">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="TIDAK LULUS">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="TIDAK LULUS">
       <formula>NOT(ISERROR(SEARCH("TIDAK LULUS",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="LULUS">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="LULUS">
       <formula>NOT(ISERROR(SEARCH("LULUS",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J27">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="L">
       <formula>NOT(ISERROR(SEARCH("L",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D5)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(D5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.1047619047619" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.8">
+    <row r="1" ht="22.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3156,25 +3680,25 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="15"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" ht="27.6">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3208,7 +3732,7 @@
       <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3244,623 +3768,689 @@
         <v>29</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="16"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="17"/>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="17"/>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="17"/>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="17"/>
+      <c r="I8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="17"/>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="19"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5" t="s">
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="20"/>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="17"/>
+      <c r="I12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="19"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="17"/>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="17"/>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="17"/>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="17"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="7">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="19"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="17"/>
+      <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="17"/>
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="19"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="17"/>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="19"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4">
+      <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="17"/>
+      <c r="D24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4">
+      <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="20"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="20"/>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4">
+      <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="17"/>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2"/>
@@ -3874,7 +4464,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="15"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2"/>
@@ -3888,109 +4478,110 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.399999999999999">
-      <c r="A31" s="11" t="s">
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" ht="18" spans="1:12">
+      <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23">
+      <c r="K31" s="26"/>
+      <c r="L31" s="27">
         <f>COUNTIFS(K5:K27,"LULUS")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.399999999999999">
-      <c r="A32" s="13" t="s">
+    <row r="32" ht="18" spans="1:12">
+      <c r="A32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:K27">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="LULUS">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="between" text="LULUS">
       <formula>NOT(ISERROR(SEARCH("LULUS",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="TIDAK LULUS">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="TIDAK LULUS">
       <formula>NOT(ISERROR(SEARCH("TIDAK LULUS",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J27">
-    <cfRule type="containsBlanks" dxfId="0" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(D5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="between" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="between" text="L">
       <formula>NOT(ISERROR(SEARCH("L",D5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>